--- a/data/trans_orig/P21D_4_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_4_R-Dificultad-trans_orig.xlsx
@@ -754,19 +754,19 @@
         <v>5276</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2411</v>
+        <v>2088</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12472</v>
+        <v>11835</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01960788630886215</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008959964988084986</v>
+        <v>0.007761150374171573</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04634932841508626</v>
+        <v>0.04398480435588614</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -775,19 +775,19 @@
         <v>5276</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2222</v>
+        <v>2252</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11441</v>
+        <v>12395</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01130806035070358</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004762013095803181</v>
+        <v>0.00482600968789653</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02452170022679626</v>
+        <v>0.02656671963338574</v>
       </c>
     </row>
     <row r="5">
@@ -817,19 +817,19 @@
         <v>263801</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>256605</v>
+        <v>257242</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>266666</v>
+        <v>266989</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9803921136911378</v>
+        <v>0.980392113691138</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9536506715849138</v>
+        <v>0.9560151956441137</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9910400350119148</v>
+        <v>0.9922388496258284</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>559</v>
@@ -838,19 +838,19 @@
         <v>461296</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>455131</v>
+        <v>454177</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>464350</v>
+        <v>464320</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9886919396492964</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9754782997732037</v>
+        <v>0.9734332803666143</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9952379869041963</v>
+        <v>0.9951739903121034</v>
       </c>
     </row>
     <row r="6">
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5233</v>
+        <v>4093</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002511207845861575</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01321121164908837</v>
+        <v>0.01033300836590919</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -963,19 +963,19 @@
         <v>6801</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3718</v>
+        <v>3328</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12513</v>
+        <v>12269</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01418863859077637</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007756097021890207</v>
+        <v>0.006942893524012166</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02610421829484648</v>
+        <v>0.02559497524120146</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -984,19 +984,19 @@
         <v>7796</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3949</v>
+        <v>4261</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13106</v>
+        <v>12895</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008905000866219592</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004510767892604716</v>
+        <v>0.004867170372482285</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01497038427036328</v>
+        <v>0.01472931247649374</v>
       </c>
     </row>
     <row r="8">
@@ -1013,16 +1013,16 @@
         <v>395123</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>390885</v>
+        <v>392025</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>396118</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9974887921541383</v>
+        <v>0.9974887921541385</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9867887883509115</v>
+        <v>0.9896669916340909</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1034,19 +1034,19 @@
         <v>472546</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>466834</v>
+        <v>467078</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>475629</v>
+        <v>476019</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9858113614092237</v>
+        <v>0.9858113614092238</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9738957817051537</v>
+        <v>0.9744050247587984</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9922439029781098</v>
+        <v>0.9930571064759878</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1044</v>
@@ -1055,19 +1055,19 @@
         <v>867669</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>862359</v>
+        <v>862570</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>871516</v>
+        <v>871204</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9910949991337803</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9850296157296365</v>
+        <v>0.985270687523506</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9954892321073953</v>
+        <v>0.9951328296275175</v>
       </c>
     </row>
     <row r="9">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6237</v>
+        <v>6606</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004422225180371659</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01528579907662418</v>
+        <v>0.01619125341916244</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3646</v>
+        <v>4877</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.001864362611015745</v>
+        <v>0.001864362611015746</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.008392272868895476</v>
+        <v>0.01122758936325261</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1201,19 +1201,19 @@
         <v>2614</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7135</v>
+        <v>7676</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003103198127781872</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0007869210903247468</v>
+        <v>0.0007888108385374579</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008470136669077189</v>
+        <v>0.009112535048292278</v>
       </c>
     </row>
     <row r="11">
@@ -1230,7 +1230,7 @@
         <v>406196</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>401763</v>
+        <v>401394</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>408000</v>
@@ -1239,7 +1239,7 @@
         <v>0.9955777748196284</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9847142009233758</v>
+        <v>0.9838087465808377</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1251,16 +1251,16 @@
         <v>433600</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>430764</v>
+        <v>429533</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>434410</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9981356373889841</v>
+        <v>0.9981356373889843</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9916077271311062</v>
+        <v>0.9887724106367473</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1272,19 +1272,19 @@
         <v>839796</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>835275</v>
+        <v>834734</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>841747</v>
+        <v>841745</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9968968018722182</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9915298633309234</v>
+        <v>0.990887464951708</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9992130789096753</v>
+        <v>0.9992111891614626</v>
       </c>
     </row>
     <row r="12">
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2890</v>
+        <v>2996</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001066373986394745</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.005261420616615686</v>
+        <v>0.005453910546898815</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4979</v>
+        <v>5506</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002801244849736029</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.009999682939574499</v>
+        <v>0.01105820158446933</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1418,19 +1418,19 @@
         <v>1980</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>577</v>
+        <v>680</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5357</v>
+        <v>5354</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001891198413859492</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0005511756663927135</v>
+        <v>0.0006493384384712969</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.005115167950279162</v>
+        <v>0.00511226146172948</v>
       </c>
     </row>
     <row r="14">
@@ -1447,16 +1447,16 @@
         <v>548739</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>546435</v>
+        <v>546329</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>549325</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9989336260136054</v>
+        <v>0.9989336260136051</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9947385793833841</v>
+        <v>0.9945460894531011</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1468,16 +1468,16 @@
         <v>496488</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>492904</v>
+        <v>492377</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>497883</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.997198755150264</v>
+        <v>0.9971987551502639</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9900003170604255</v>
+        <v>0.9889417984155309</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1489,19 +1489,19 @@
         <v>1045229</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1041852</v>
+        <v>1041855</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1046632</v>
+        <v>1046529</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9981088015861406</v>
+        <v>0.9981088015861405</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.994884832049721</v>
+        <v>0.9948877385382661</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9994488243336073</v>
+        <v>0.9993506615615286</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>3385</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>992</v>
+        <v>1156</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9103</v>
+        <v>9232</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002182412603797964</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0006397516586006012</v>
+        <v>0.0007455030863004955</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.005869663636114359</v>
+        <v>0.005952215581722675</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -1614,19 +1614,19 @@
         <v>14282</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8803</v>
+        <v>8856</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22445</v>
+        <v>21539</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008497501615756785</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005237697329569456</v>
+        <v>0.005269427172519568</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01335463975520893</v>
+        <v>0.01281565356388799</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -1635,19 +1635,19 @@
         <v>17667</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11608</v>
+        <v>11988</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26674</v>
+        <v>27341</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.0054667596908302</v>
+        <v>0.005466759690830202</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003591976316518738</v>
+        <v>0.003709472476439706</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008254077256084312</v>
+        <v>0.008460270424861993</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>1547553</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1541835</v>
+        <v>1541706</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1549946</v>
+        <v>1549782</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.997817587396202</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9941303363638856</v>
+        <v>0.9940477844182766</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9993602483413995</v>
+        <v>0.9992544969136995</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2329</v>
@@ -1685,19 +1685,19 @@
         <v>1666435</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1658272</v>
+        <v>1659178</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1671914</v>
+        <v>1671861</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9915024983842433</v>
+        <v>0.9915024983842432</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9866453602447915</v>
+        <v>0.987184346436112</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9947623026704306</v>
+        <v>0.9947305728274803</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3772</v>
@@ -1706,19 +1706,19 @@
         <v>3213989</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3204982</v>
+        <v>3204315</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3220048</v>
+        <v>3219668</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9945332403091698</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9917459227439157</v>
+        <v>0.991539729575138</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9964080236834814</v>
+        <v>0.9962905275235604</v>
       </c>
     </row>
     <row r="18">
